--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/67351593/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/67351593/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9786014556884766</v>
+        <v>0.9689058065414429</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9784063100814819</v>
+        <v>0.9686999320983887</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9772055745124817</v>
+        <v>0.967073380947113</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7552010416984558</v>
+        <v>0.6921945810317993</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9796870946884155</v>
+        <v>0.9703922271728516</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9804607033729553</v>
+        <v>0.971422016620636</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.980344295501709</v>
+        <v>0.9712209105491638</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9799547791481018</v>
+        <v>0.9707713723182678</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.980344295501709</v>
+        <v>0.9712209105491638</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6544473171234131</v>
+        <v>0.5951924324035645</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9818657040596008</v>
+        <v>0.973253607749939</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9214835166931152</v>
+        <v>0.9013102650642395</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9794061779975891</v>
+        <v>0.969990611076355</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9794517159461975</v>
+        <v>0.9700492024421692</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9796980619430542</v>
+        <v>0.9704146981239319</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9797471761703491</v>
+        <v>0.9704682230949402</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2683312594890594</v>
+        <v>0.3431747555732727</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9809111356735229</v>
+        <v>0.9720136523246765</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9812249541282654</v>
+        <v>0.9724465608596802</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9774512648582458</v>
+        <v>0.9674038290977478</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9795078635215759</v>
+        <v>0.9701154828071594</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9809147119522095</v>
+        <v>0.9720280766487122</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9813368916511536</v>
+        <v>0.9725863933563232</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7542017698287964</v>
+        <v>0.6906437277793884</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2598777115345001</v>
+        <v>0.3370065987110138</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9786204099655151</v>
+        <v>0.968952476978302</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9784063100814819</v>
+        <v>0.9686999320983887</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9775427579879761</v>
+        <v>0.9675663709640503</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9796960353851318</v>
+        <v>0.9704056978225708</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9784482717514038</v>
+        <v>0.9687554836273193</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9805655479431152</v>
+        <v>0.9715487957000732</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8523303270339966</v>
+        <v>0.8121333122253418</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9218869805335999</v>
+        <v>0.9019171595573425</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9174021482467651</v>
+        <v>0.8966938853263855</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9805002212524414</v>
+        <v>0.971484363079071</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9188010692596436</v>
+        <v>0.8983099460601807</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.981605589389801</v>
+        <v>0.9729176759719849</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9189613461494446</v>
+        <v>0.8983244895935059</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8512433171272278</v>
+        <v>0.8096926212310791</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9816267490386963</v>
+        <v>0.9729359745979309</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8911544680595398</v>
+        <v>0.8645661473274231</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8567562103271484</v>
+        <v>0.817054808139801</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9195097088813782</v>
+        <v>0.899138331413269</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8593496680259705</v>
+        <v>0.819878101348877</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8513661026954651</v>
+        <v>0.8113074898719788</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.747806191444397</v>
+        <v>0.6801660656929016</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8488549590110779</v>
+        <v>0.8083900809288025</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9813973903656006</v>
+        <v>0.9726100564002991</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8537508845329285</v>
+        <v>0.8137627840042114</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8496863842010498</v>
+        <v>0.8096858859062195</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9782727956771851</v>
+        <v>0.9685441255569458</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8537508845329285</v>
+        <v>0.8137627840042114</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.853912889957428</v>
+        <v>0.8138500452041626</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9804145097732544</v>
+        <v>0.9713648557662964</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9806963801383972</v>
+        <v>0.9716919660568237</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9818171262741089</v>
+        <v>0.9731772541999817</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9173433780670166</v>
+        <v>0.896697998046875</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9815422892570496</v>
+        <v>0.9728063344955444</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9800242781639099</v>
+        <v>0.9707756042480469</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9805747270584106</v>
+        <v>0.9715399146080017</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9814538955688477</v>
+        <v>0.9727274775505066</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9196910858154297</v>
+        <v>0.8993270397186279</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5387530922889709</v>
+        <v>0.4980610311031342</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9174500107765198</v>
+        <v>0.8967660665512085</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9174500107765198</v>
+        <v>0.8967660665512085</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9196816682815552</v>
+        <v>0.8993371725082397</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9174500107765198</v>
+        <v>0.8967660665512085</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8202658891677856</v>
+        <v>0.6817806363105774</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9804530143737793</v>
+        <v>0.9714014530181885</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9194291830062866</v>
+        <v>0.8988844156265259</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.976026713848114</v>
+        <v>0.9655382633209229</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9187396168708801</v>
+        <v>0.8982523679733276</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9795237183570862</v>
+        <v>0.9701322913169861</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9796850085258484</v>
+        <v>0.9703958034515381</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9187396168708801</v>
+        <v>0.8982523679733276</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9784495234489441</v>
+        <v>0.9687653779983521</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9187396168708801</v>
+        <v>0.8982523679733276</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9809107184410095</v>
+        <v>0.9720180630683899</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9187811613082886</v>
+        <v>0.8983323574066162</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9784616231918335</v>
+        <v>0.96877521276474</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9187811613082886</v>
+        <v>0.8983323574066162</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9727383852005005</v>
+        <v>0.9612163305282593</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9727383852005005</v>
+        <v>0.9612163305282593</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9818182587623596</v>
+        <v>0.9731758236885071</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9195764660835266</v>
+        <v>0.8992080688476562</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9808412790298462</v>
+        <v>0.9719619750976562</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9187349677085876</v>
+        <v>0.8982982039451599</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9784397482872009</v>
+        <v>0.9687352776527405</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9794979095458984</v>
+        <v>0.9700914621353149</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9794935584068298</v>
+        <v>0.9700858592987061</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9795122742652893</v>
+        <v>0.970112144947052</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9794886112213135</v>
+        <v>0.9700830578804016</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9794864654541016</v>
+        <v>0.9700819253921509</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9795053005218506</v>
+        <v>0.9701018929481506</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9819102883338928</v>
+        <v>0.9733182787895203</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2612060606479645</v>
+        <v>0.252788782119751</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9812988638877869</v>
+        <v>0.9725037217140198</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9785469174385071</v>
+        <v>0.9688799381256104</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9775156378746033</v>
+        <v>0.9674831628799438</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9809724092483521</v>
+        <v>0.9721056818962097</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7564111948013306</v>
+        <v>0.6892605423927307</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8555258512496948</v>
+        <v>0.8167437314987183</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9796863198280334</v>
+        <v>0.9703887701034546</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8296728134155273</v>
+        <v>0.6941863894462585</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9775492548942566</v>
+        <v>0.9675289988517761</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8576228618621826</v>
+        <v>0.8180435299873352</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7404765486717224</v>
+        <v>0.6715947985649109</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9786331057548523</v>
+        <v>0.9689717888832092</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9784063100814819</v>
+        <v>0.9686999320983887</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.852374792098999</v>
+        <v>0.8122202157974243</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8568627834320068</v>
+        <v>0.8172128200531006</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.920656144618988</v>
+        <v>0.9004148840904236</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9814677834510803</v>
+        <v>0.9727383852005005</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9205546975135803</v>
+        <v>0.9004144072532654</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9726561903953552</v>
+        <v>0.9611352682113647</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9757038354873657</v>
+        <v>0.9650977849960327</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7899917364120483</v>
+        <v>0.6557523608207703</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9803025722503662</v>
+        <v>0.9711663722991943</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9784063100814819</v>
+        <v>0.9686999320983887</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8207982182502747</v>
+        <v>0.6826446652412415</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9814010858535767</v>
+        <v>0.9726378917694092</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8207982182502747</v>
+        <v>0.6826446652412415</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9814010858535767</v>
+        <v>0.9726378917694092</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8207982182502747</v>
+        <v>0.6826446652412415</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9811754822731018</v>
+        <v>0.9723353385925293</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9786545634269714</v>
+        <v>0.9692916870117188</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9784063100814819</v>
+        <v>0.9686999320983887</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9803417921066284</v>
+        <v>0.9712702035903931</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9774171113967896</v>
+        <v>0.967365562915802</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.975658118724823</v>
+        <v>0.9650469422340393</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8436959385871887</v>
+        <v>0.7997995615005493</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9797200560569763</v>
+        <v>0.9704456329345703</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9794782400131226</v>
+        <v>0.9700660109519958</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9804871678352356</v>
+        <v>0.9714439511299133</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9722174406051636</v>
+        <v>0.9605929851531982</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.97971111536026</v>
+        <v>0.9704300761222839</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9757041931152344</v>
+        <v>0.9650901556015015</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9757104516029358</v>
+        <v>0.9651015996932983</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9784151911735535</v>
+        <v>0.9687108993530273</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6734126210212708</v>
+        <v>0.5938769578933716</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9784063100814819</v>
+        <v>0.9686999320983887</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9173539280891418</v>
+        <v>0.8967044949531555</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9800353646278381</v>
+        <v>0.9708291888237</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9173539280891418</v>
+        <v>0.8967044949531555</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9726622700691223</v>
+        <v>0.9611274600028992</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.8202658891677856</v>
+        <v>0.6817806363105774</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9785924553871155</v>
+        <v>0.9689031839370728</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9187082052230835</v>
+        <v>0.8982055187225342</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8220676779747009</v>
+        <v>0.6851263642311096</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9784063100814819</v>
+        <v>0.9686999320983887</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7342324256896973</v>
+        <v>0.6619872450828552</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9816206097602844</v>
+        <v>0.9729315638542175</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7441485524177551</v>
+        <v>0.6766462326049805</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9812824726104736</v>
+        <v>0.9725020527839661</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.7445136308670044</v>
+        <v>0.6771089434623718</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9800180792808533</v>
+        <v>0.9707960486412048</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.7445534467697144</v>
+        <v>0.6772615909576416</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9803500175476074</v>
+        <v>0.9712215065956116</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9200658798217773</v>
+        <v>0.8997697234153748</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9786840081214905</v>
+        <v>0.969017505645752</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9726764559745789</v>
+        <v>0.962482213973999</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9757059812545776</v>
+        <v>0.9650958180427551</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9173639416694641</v>
+        <v>0.8966569900512695</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9818429350852966</v>
+        <v>0.9732213020324707</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9728034734725952</v>
+        <v>0.961269199848175</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.845112681388855</v>
+        <v>0.8043646812438965</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9204326868057251</v>
+        <v>0.9002005457878113</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9784063100814819</v>
+        <v>0.9686999320983887</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.845112681388855</v>
+        <v>0.8043646812438965</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9196102023124695</v>
+        <v>0.8991930484771729</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9784063100814819</v>
+        <v>0.9686999320983887</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9756733179092407</v>
+        <v>0.9650496244430542</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.975685715675354</v>
+        <v>0.9650681614875793</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9756733179092407</v>
+        <v>0.9650496244430542</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9756733179092407</v>
+        <v>0.9650496244430542</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.975685715675354</v>
+        <v>0.9650681614875793</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9786112904548645</v>
+        <v>0.9689325094223022</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9760511517524719</v>
+        <v>0.9655859470367432</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.97971111536026</v>
+        <v>0.9704293608665466</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9810928702354431</v>
+        <v>0.9722469449043274</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9804702401161194</v>
+        <v>0.9714345932006836</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.82752525806427</v>
+        <v>0.6913065314292908</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9813709855079651</v>
+        <v>0.972615122795105</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9816208481788635</v>
+        <v>0.9729456305503845</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9807368516921997</v>
+        <v>0.9717520475387573</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9803163409233093</v>
+        <v>0.9712039232254028</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9786535501480103</v>
+        <v>0.968996524810791</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9794639348983765</v>
+        <v>0.970064640045166</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9794807434082031</v>
+        <v>0.9700883626937866</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.2467197924852371</v>
+        <v>0.2412889450788498</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9805163741111755</v>
+        <v>0.9714965224266052</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9797412157058716</v>
+        <v>0.9704618453979492</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.8206365704536438</v>
+        <v>0.6823980212211609</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.853498637676239</v>
+        <v>0.8136833906173706</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9813241362571716</v>
+        <v>0.9725499749183655</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9803301692008972</v>
+        <v>0.9711941480636597</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9806820154190063</v>
+        <v>0.9716669917106628</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9809263944625854</v>
+        <v>0.9720333814620972</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9187417030334473</v>
+        <v>0.8980233073234558</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9809448719024658</v>
+        <v>0.9720487594604492</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9809674620628357</v>
+        <v>0.9720841646194458</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9797276258468628</v>
+        <v>0.9704485535621643</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.8452555537223816</v>
+        <v>0.8045288920402527</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9810420274734497</v>
+        <v>0.9721564650535583</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9756647944450378</v>
+        <v>0.9650484323501587</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.258579820394516</v>
+        <v>0.2506901621818542</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9760213494300842</v>
+        <v>0.9655225872993469</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.2807663679122925</v>
+        <v>0.3537508249282837</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9796636700630188</v>
+        <v>0.970364511013031</v>
       </c>
     </row>
   </sheetData>
